--- a/Agrege/Base/description.xlsx
+++ b/Agrege/Base/description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1680" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="11540" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>DataStream</t>
   </si>
@@ -61,6 +61,171 @@
   </si>
   <si>
     <t>Economic Sentiment Indicator</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>AWM</t>
+  </si>
+  <si>
+    <t>commodity price</t>
+  </si>
+  <si>
+    <t>oil price</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>HICP energy</t>
+  </si>
+  <si>
+    <t>COMPR</t>
+  </si>
+  <si>
+    <t>POILU</t>
+  </si>
+  <si>
+    <t>PCOMU</t>
+  </si>
+  <si>
+    <t>non oil com. Price</t>
+  </si>
+  <si>
+    <t>HEG</t>
+  </si>
+  <si>
+    <t>HICP exc. Energy</t>
+  </si>
+  <si>
+    <t>HEXSA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>HICPSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HICP </t>
+  </si>
+  <si>
+    <t>HICP</t>
+  </si>
+  <si>
+    <t>Effective exchange rate</t>
+  </si>
+  <si>
+    <t>EEN</t>
+  </si>
+  <si>
+    <t>EUR/USD</t>
+  </si>
+  <si>
+    <t>EXR</t>
+  </si>
+  <si>
+    <t>transformation</t>
+  </si>
+  <si>
+    <t>URX</t>
+  </si>
+  <si>
+    <t>unemployment rate</t>
+  </si>
+  <si>
+    <t>short term interest rate</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>LTN</t>
+  </si>
+  <si>
+    <t>long term interest rate</t>
+  </si>
+  <si>
+    <t>YWRX</t>
+  </si>
+  <si>
+    <t>World demand</t>
+  </si>
+  <si>
+    <t>GDP (real)</t>
+  </si>
+  <si>
+    <t>YER</t>
+  </si>
+  <si>
+    <t>CPE</t>
+  </si>
+  <si>
+    <t>compensation per employee</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>XTR</t>
+  </si>
+  <si>
+    <t>imports of good</t>
+  </si>
+  <si>
+    <t>export of good</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>/100</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>LFI</t>
+  </si>
+  <si>
+    <t>LHO</t>
+  </si>
+  <si>
+    <t>DJES</t>
+  </si>
+  <si>
+    <t>Millions of Euro/nb actifs</t>
+  </si>
+  <si>
+    <t>Producer price index</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
@@ -100,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,25 +273,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,87 +694,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E9"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="C6" t="s">
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="C7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="30">
-      <c r="B9" t="s">
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30">
+      <c r="B22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B12:B28"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
